--- a/data/apprentice_enter_lab.xlsx
+++ b/data/apprentice_enter_lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F91D68D-7F9B-4908-BDEE-5897D4042BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BC8365-0C7D-4F68-A476-C87D16C6BE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
   <si>
     <t>שם</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>בני דוד עלי</t>
-  </si>
-  <si>
-    <t>בני דוד הבקעה</t>
   </si>
   <si>
     <t xml:space="preserve">בני דוד דרך אבות </t>
@@ -371,7 +368,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,13 +380,6 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="David"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="David"/>
       <family val="2"/>
     </font>
@@ -471,30 +461,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -840,8 +827,8 @@
   <sheetPr codeName="Sheet 1"/>
   <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -925,43 +912,43 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>549247615</v>
@@ -969,8 +956,8 @@
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4">
-        <v>544816491</v>
+      <c r="D2" s="3">
+        <v>523301800</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -997,13 +984,13 @@
         <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P2" t="s">
         <v>34</v>
@@ -1030,25 +1017,25 @@
         <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="AA2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC2" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="7" t="s">
-        <v>100</v>
+      <c r="AD2" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="AE2" t="s">
         <v>40</v>
@@ -1068,7 +1055,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>549247614</v>
@@ -1076,17 +1063,17 @@
       <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="5">
-        <v>544816492</v>
+      <c r="D3" s="3">
+        <v>523301803</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>69</v>
+      <c r="G3" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H3" t="s">
         <v>44</v>
@@ -1110,7 +1097,7 @@
         <v>33</v>
       </c>
       <c r="O3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P3" t="s">
         <v>50</v>
@@ -1119,10 +1106,10 @@
         <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T3" t="s">
         <v>52</v>
@@ -1137,25 +1124,25 @@
         <v>42</v>
       </c>
       <c r="X3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="AA3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC3" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" s="7" t="s">
-        <v>101</v>
+      <c r="AD3" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="AE3" t="s">
         <v>54</v>
@@ -1175,7 +1162,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>549247613</v>
@@ -1183,17 +1170,17 @@
       <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="5">
-        <v>544816493</v>
+      <c r="D4" s="4">
+        <v>523301801</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>70</v>
+        <v>94</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="H4" t="s">
         <v>58</v>
@@ -1211,13 +1198,13 @@
         <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N4" t="s">
         <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P4" t="s">
         <v>64</v>
@@ -1226,7 +1213,7 @@
         <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S4" t="s">
         <v>37</v>
@@ -1244,25 +1231,25 @@
         <v>56</v>
       </c>
       <c r="X4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="AA4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC4" t="s">
         <v>61</v>
       </c>
-      <c r="AD4" s="7" t="s">
-        <v>102</v>
+      <c r="AD4" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="AE4" t="s">
         <v>67</v>
@@ -1277,12 +1264,12 @@
         <v>3</v>
       </c>
       <c r="AI4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Z2" r:id="rId1" xr:uid="{5B435670-86E0-45A8-90D3-D18D08026C23}"/>
     <hyperlink ref="Z3" r:id="rId2" xr:uid="{B865A5ED-7E60-4EC5-B675-4DF8CDCF1ADF}"/>

--- a/data/apprentice_enter_lab.xlsx
+++ b/data/apprentice_enter_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37314BEF-46C6-4E90-8227-042D2C8BA4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDD68FE-EAF4-4D20-9436-F1267D63AF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EE0135EA-A3CD-4A7C-A703-7BC851E2A15A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>חניך 1</t>
   </si>
@@ -269,10 +269,13 @@
     <t>מרכז</t>
   </si>
   <si>
-    <t>תשרי</t>
-  </si>
-  <si>
     <t xml:space="preserve">בני דוד דרך אבות </t>
+  </si>
+  <si>
+    <t>יא תשרי</t>
+  </si>
+  <si>
+    <t>דרום</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -393,6 +396,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88626C00-A879-449E-8101-7BD32B33290B}">
   <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -863,7 +869,7 @@
         <v>313387345</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -950,10 +956,10 @@
         <v>73</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AM2" s="7">
         <v>549247616</v>
@@ -1074,8 +1080,8 @@
       <c r="AL3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AM3" s="7">
-        <v>549247615</v>
+      <c r="AM3" s="9">
+        <v>549247617</v>
       </c>
       <c r="AN3" s="2" t="s">
         <v>75</v>

--- a/data/apprentice_enter_lab.xlsx
+++ b/data/apprentice_enter_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDD68FE-EAF4-4D20-9436-F1267D63AF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC0CC31-CB29-44A6-A30F-D5A56AC87E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EE0135EA-A3CD-4A7C-A703-7BC851E2A15A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>חניך 1</t>
   </si>
@@ -50,9 +50,6 @@
     <t>שלומציון המלכה 10</t>
   </si>
   <si>
-    <t>1999/01/28</t>
-  </si>
-  <si>
     <t>רווק</t>
   </si>
   <si>
@@ -62,21 +59,12 @@
     <t>נריה</t>
   </si>
   <si>
-    <t>544867080</t>
-  </si>
-  <si>
     <t>on41@neto.net.il</t>
   </si>
   <si>
     <t>טלי</t>
   </si>
   <si>
-    <t>547777915</t>
-  </si>
-  <si>
-    <t>כ״ב אדר א</t>
-  </si>
-  <si>
     <t>הרב לירן</t>
   </si>
   <si>
@@ -98,39 +86,12 @@
     <t>פתח תקווה</t>
   </si>
   <si>
-    <t>אוניברסיטת אריאל</t>
-  </si>
-  <si>
     <t>הייטק</t>
   </si>
   <si>
     <t>צנחנים</t>
   </si>
   <si>
-    <t>בני דוד עלי</t>
-  </si>
-  <si>
-    <t>שיזפון</t>
-  </si>
-  <si>
-    <t>און עלי1</t>
-  </si>
-  <si>
-    <t>יא חשוון</t>
-  </si>
-  <si>
-    <t>יעל</t>
-  </si>
-  <si>
-    <t>מחובר חלקית</t>
-  </si>
-  <si>
-    <t>גבעתי</t>
-  </si>
-  <si>
-    <t>לא משלם</t>
-  </si>
-  <si>
     <t>שם</t>
   </si>
   <si>
@@ -149,9 +110,6 @@
     <t>תעודת זהות</t>
   </si>
   <si>
-    <t>יום הולדת עברי</t>
-  </si>
-  <si>
     <t>יום הולדת לועזי</t>
   </si>
   <si>
@@ -164,36 +122,6 @@
     <t>מחזור תוכנית הדר</t>
   </si>
   <si>
-    <t>שם אב</t>
-  </si>
-  <si>
-    <t>אב פלאפון</t>
-  </si>
-  <si>
-    <t>מייל אב</t>
-  </si>
-  <si>
-    <t>שם אם</t>
-  </si>
-  <si>
-    <t>פלאפון אם</t>
-  </si>
-  <si>
-    <t>מייל אם</t>
-  </si>
-  <si>
-    <t>שם אישה</t>
-  </si>
-  <si>
-    <t>טלפון אישה</t>
-  </si>
-  <si>
-    <t>מייל אישה</t>
-  </si>
-  <si>
-    <t>יום נישואין תאריך עברי</t>
-  </si>
-  <si>
     <t>יום נישואין תאריך לועזי</t>
   </si>
   <si>
@@ -221,9 +149,6 @@
     <t>פלאפון מחנך תיכון</t>
   </si>
   <si>
-    <t xml:space="preserve">עיסוק </t>
-  </si>
-  <si>
     <t>מקום עבודה</t>
   </si>
   <si>
@@ -236,53 +161,146 @@
     <t>חטיבה - שיוך יחידתי</t>
   </si>
   <si>
-    <t>תפקיד</t>
-  </si>
-  <si>
-    <t>אשכול</t>
-  </si>
-  <si>
     <t>מוסד</t>
   </si>
   <si>
-    <t>מלווה אחראי</t>
-  </si>
-  <si>
-    <t>militaryCompoundId</t>
-  </si>
-  <si>
-    <t>א</t>
-  </si>
-  <si>
-    <t>ה</t>
-  </si>
-  <si>
-    <t>חייל</t>
-  </si>
-  <si>
-    <t>מפקד</t>
-  </si>
-  <si>
-    <t>ענתות</t>
-  </si>
-  <si>
-    <t>מרכז</t>
-  </si>
-  <si>
-    <t xml:space="preserve">בני דוד דרך אבות </t>
-  </si>
-  <si>
-    <t>יא תשרי</t>
-  </si>
-  <si>
-    <t>דרום</t>
+    <t>יום הולדת עברי חודש</t>
+  </si>
+  <si>
+    <t>יום הולדת עברי - יום</t>
+  </si>
+  <si>
+    <t>מייל חניך</t>
+  </si>
+  <si>
+    <t>איש קשר - 1 - קירבה</t>
+  </si>
+  <si>
+    <t>איש קשר - 1 - שם</t>
+  </si>
+  <si>
+    <t>איש קשר - 1 -פלאפון</t>
+  </si>
+  <si>
+    <t>איש קשר - 1 - מייל</t>
+  </si>
+  <si>
+    <t>איש קשר - 2 - קירבה</t>
+  </si>
+  <si>
+    <t>איש קשר - 2 - שם</t>
+  </si>
+  <si>
+    <t>איש קשר - 2 - פלאפון</t>
+  </si>
+  <si>
+    <t>איש קשר - 2 - מייל</t>
+  </si>
+  <si>
+    <t>איש קשר - 3 - קירבה</t>
+  </si>
+  <si>
+    <t>איש קשר - 3 - שם</t>
+  </si>
+  <si>
+    <t>איש קשר - 3 - טלפון</t>
+  </si>
+  <si>
+    <t>איש קשר - 3 - מייל</t>
+  </si>
+  <si>
+    <t>יום נישואין תאריך עברי - חודש</t>
+  </si>
+  <si>
+    <t>יום נישואין תאריך עברי - יום</t>
+  </si>
+  <si>
+    <t>מחזור במכינה/ישיבה</t>
+  </si>
+  <si>
+    <t>שם תיכון</t>
+  </si>
+  <si>
+    <t>עיסוק</t>
+  </si>
+  <si>
+    <t>סוג שירות</t>
+  </si>
+  <si>
+    <t>שם יחידה/מספר יחידה</t>
+  </si>
+  <si>
+    <t>תפקיד נוכחי</t>
+  </si>
+  <si>
+    <t>תפקיד קודם</t>
+  </si>
+  <si>
+    <t>תאריך גיוס</t>
+  </si>
+  <si>
+    <t>תאריך שחרור</t>
+  </si>
+  <si>
+    <t>בסיס</t>
+  </si>
+  <si>
+    <t>מלווה אחראי - טלפון</t>
+  </si>
+  <si>
+    <t>תשרי</t>
+  </si>
+  <si>
+    <t>ד</t>
+  </si>
+  <si>
+    <t>18/08/2221</t>
+  </si>
+  <si>
+    <t>ו</t>
+  </si>
+  <si>
+    <t>אב</t>
+  </si>
+  <si>
+    <t>אם</t>
+  </si>
+  <si>
+    <t>אישה</t>
+  </si>
+  <si>
+    <t>למרחב</t>
+  </si>
+  <si>
+    <t>הטכניון</t>
+  </si>
+  <si>
+    <t>באר שבע</t>
+  </si>
+  <si>
+    <t>חיל שריון</t>
+  </si>
+  <si>
+    <t>מפקד כיתה</t>
+  </si>
+  <si>
+    <t>חייל מסלול</t>
+  </si>
+  <si>
+    <t>בא"ח נחל</t>
+  </si>
+  <si>
+    <t>בני דוד דרך אבות</t>
+  </si>
+  <si>
+    <t>18/08/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,38 +312,41 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="David"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Docs-Calibri"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="David"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="David"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FFD4EDBC"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF11734B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -338,18 +359,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -358,16 +379,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -376,30 +442,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,390 +794,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88626C00-A879-449E-8101-7BD32B33290B}">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:53" ht="78" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AJ1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AM1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AQ1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AT1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AN1" t="s">
+    </row>
+    <row r="2" spans="1:53" ht="47" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>549247629</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8">
+        <v>311</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>544816401</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2">
-        <v>313387345</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="8">
+        <v>544867080</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="8">
+        <v>547777915</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="8">
+        <v>547777915</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>544816495</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>544816495</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>544816495</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="3">
-        <v>544816495</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>544816495</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AP2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AQ2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="3">
-        <v>544816495</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM2" s="7">
-        <v>549247616</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>544816402</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2">
-        <v>323398456</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" s="3">
-        <v>544816496</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>544816496</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>544816496</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM3" s="9">
-        <v>549247617</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>75</v>
+      <c r="AT2" s="6">
+        <v>888</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>540247616</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AA2:AA3" xr:uid="{D04D9AAB-7DEC-4935-B4B2-55177ECDDE26}">
-      <formula1>"משלם,לא משלם"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AB2:AB3" xr:uid="{291AD16E-698B-4DBF-BB28-C2A4F8ED88B9}">
-      <formula1>"אדוק,מחובר,מחובר חלקית,בשלבי ניתוק,מנותק"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{E4B043E5-E17C-45C2-B88B-5F988A0FB68F}">
-      <formula1>"בשירות סדיר,קבע,משוחרר,בטיול אחרי צבא"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/apprentice_enter_lab.xlsx
+++ b/data/apprentice_enter_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC0CC31-CB29-44A6-A30F-D5A56AC87E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEFC75D-974F-449D-ADA9-1ED62E7F223D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EE0135EA-A3CD-4A7C-A703-7BC851E2A15A}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
-    <t>חניך 1</t>
-  </si>
-  <si>
     <t>שוטנשטיין</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>עוז</t>
   </si>
 </sst>
 </file>
@@ -797,7 +797,7 @@
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -808,317 +808,317 @@
   <sheetData>
     <row r="1" spans="1:53" ht="78" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AK1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="47" thickBot="1">
       <c r="A2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="C2" s="7">
         <v>549247629</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="F2" s="8">
         <v>311</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="P2" s="8">
         <v>544867080</v>
       </c>
       <c r="Q2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="T2" s="8">
         <v>547777915</v>
       </c>
       <c r="U2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="X2" s="8">
         <v>547777915</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="AC2" s="10"/>
       <c r="AD2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE2" s="7">
         <v>544816495</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG2" s="7">
         <v>544816495</v>
       </c>
       <c r="AH2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="AL2" s="7">
         <v>544816495</v>
       </c>
       <c r="AM2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AR2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="AT2" s="6">
         <v>888</v>
       </c>
       <c r="AU2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AV2" s="7" t="s">
+      <c r="AW2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AW2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="BA2" s="7">
         <v>540247616</v>

--- a/data/apprentice_enter_lab.xlsx
+++ b/data/apprentice_enter_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEFC75D-974F-449D-ADA9-1ED62E7F223D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8492D310-AA6D-4DA9-8819-26352B204DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EE0135EA-A3CD-4A7C-A703-7BC851E2A15A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>שוטנשטיין</t>
   </si>
@@ -294,13 +294,19 @@
   </si>
   <si>
     <t>עוז</t>
+  </si>
+  <si>
+    <t>ניסן</t>
+  </si>
+  <si>
+    <t>טו</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +354,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -442,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -480,6 +492,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,7 +810,7 @@
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -974,8 +987,8 @@
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
-        <v>549247629</v>
+      <c r="C2" s="13">
+        <v>549247615</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
@@ -987,10 +1000,10 @@
         <v>311</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>84</v>
@@ -1120,8 +1133,8 @@
       <c r="AZ2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="BA2" s="7">
-        <v>540247616</v>
+      <c r="BA2" s="13">
+        <v>549247616</v>
       </c>
     </row>
   </sheetData>

--- a/data/apprentice_enter_lab.xlsx
+++ b/data/apprentice_enter_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8492D310-AA6D-4DA9-8819-26352B204DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A113DEE-1827-4E2B-97D9-708E08E9AEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EE0135EA-A3CD-4A7C-A703-7BC851E2A15A}"/>
   </bookViews>
@@ -382,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -450,11 +450,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -493,6 +508,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,11 +828,12 @@
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -987,8 +1006,8 @@
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13">
-        <v>549247615</v>
+      <c r="C2" s="14">
+        <v>549247655</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>

--- a/data/apprentice_enter_lab.xlsx
+++ b/data/apprentice_enter_lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE74EC5A-6373-4786-AE8E-C9EBC7154C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594C7789-2115-49DC-81C9-3933F76BE8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -470,9 +470,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -944,7 +941,7 @@
       <c r="I2" s="8">
         <v>117474</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>98</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1067,11 +1064,11 @@
       <c r="AX2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AY2" s="20" t="s">
+      <c r="AY2" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AZ2" s="13">
-        <v>544816491</v>
+      <c r="AZ2" s="12">
+        <v>549247616</v>
       </c>
     </row>
     <row r="3" spans="1:53" ht="24" customHeight="1">
@@ -1097,8 +1094,10 @@
       <c r="H3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="8">
+        <v>117474</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>98</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1219,321 +1218,321 @@
       <c r="AX3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AY3" s="20" t="s">
+      <c r="AY3" s="19" t="s">
         <v>96</v>
       </c>
       <c r="AZ3" s="12">
-        <v>544816491</v>
+        <v>549247616</v>
       </c>
     </row>
     <row r="4" spans="1:53" ht="15.5">
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="17"/>
-      <c r="AP4" s="16"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="15"/>
     </row>
     <row r="5" spans="1:53" ht="15.5">
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="18"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="14"/>
+      <c r="AP5" s="17"/>
     </row>
     <row r="6" spans="1:53" ht="15.5">
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="17"/>
-      <c r="AP6" s="16"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="15"/>
     </row>
     <row r="7" spans="1:53" ht="15.5">
-      <c r="AJ7" s="18"/>
-      <c r="AK7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="18"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="17"/>
     </row>
     <row r="8" spans="1:53" ht="15.5">
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="16"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="15"/>
     </row>
     <row r="9" spans="1:53" ht="15.5">
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="18"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="17"/>
     </row>
     <row r="10" spans="1:53" ht="15.5">
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="16"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="15"/>
     </row>
     <row r="11" spans="1:53" ht="15.5">
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="18"/>
-      <c r="BA11" s="14"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="17"/>
+      <c r="BA11" s="13"/>
     </row>
     <row r="12" spans="1:53" ht="15.5">
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="16"/>
-      <c r="BA12" s="14"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="15"/>
+      <c r="BA12" s="13"/>
     </row>
     <row r="13" spans="1:53" ht="15.5">
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AN13" s="18"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="18"/>
-      <c r="BA13" s="14"/>
+      <c r="AN13" s="17"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="17"/>
+      <c r="BA13" s="13"/>
     </row>
     <row r="14" spans="1:53" ht="15.5">
-      <c r="AO14" s="17"/>
-      <c r="BA14" s="14"/>
+      <c r="AO14" s="16"/>
+      <c r="BA14" s="13"/>
     </row>
     <row r="15" spans="1:53" ht="15.5">
-      <c r="AO15" s="15"/>
-      <c r="BA15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="BA15" s="13"/>
     </row>
     <row r="16" spans="1:53" ht="15.5">
-      <c r="AO16" s="17"/>
-      <c r="BA16" s="14"/>
+      <c r="AO16" s="16"/>
+      <c r="BA16" s="13"/>
     </row>
     <row r="17" spans="7:53" ht="15.5">
-      <c r="AO17" s="15"/>
-      <c r="BA17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="BA17" s="13"/>
     </row>
     <row r="18" spans="7:53" ht="15.5">
-      <c r="AO18" s="17"/>
-      <c r="BA18" s="14"/>
+      <c r="AO18" s="16"/>
+      <c r="BA18" s="13"/>
     </row>
     <row r="19" spans="7:53" ht="15.5">
-      <c r="AO19" s="15"/>
-      <c r="BA19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="BA19" s="13"/>
     </row>
     <row r="20" spans="7:53" ht="15.5">
-      <c r="AO20" s="17"/>
-      <c r="BA20" s="14"/>
+      <c r="AO20" s="16"/>
+      <c r="BA20" s="13"/>
     </row>
     <row r="21" spans="7:53" ht="15.5">
-      <c r="AO21" s="15"/>
-      <c r="BA21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="BA21" s="13"/>
     </row>
     <row r="22" spans="7:53" ht="15.5">
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AO22" s="17"/>
-      <c r="BA22" s="14"/>
+      <c r="AO22" s="16"/>
+      <c r="BA22" s="13"/>
     </row>
     <row r="23" spans="7:53" ht="15.5">
-      <c r="AO23" s="15"/>
-      <c r="BA23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="BA23" s="13"/>
     </row>
     <row r="24" spans="7:53" ht="15.5">
-      <c r="AO24" s="17"/>
-      <c r="BA24" s="14"/>
+      <c r="AO24" s="16"/>
+      <c r="BA24" s="13"/>
     </row>
     <row r="25" spans="7:53" ht="15.5">
-      <c r="AO25" s="15"/>
+      <c r="AO25" s="14"/>
     </row>
     <row r="26" spans="7:53" ht="15.5">
-      <c r="AO26" s="17"/>
+      <c r="AO26" s="16"/>
     </row>
     <row r="27" spans="7:53" ht="15.5">
-      <c r="AO27" s="15"/>
+      <c r="AO27" s="14"/>
     </row>
     <row r="28" spans="7:53" ht="15.5">
-      <c r="AO28" s="17"/>
+      <c r="AO28" s="16"/>
     </row>
     <row r="29" spans="7:53" ht="15.5">
-      <c r="AO29" s="15"/>
+      <c r="AO29" s="14"/>
     </row>
     <row r="30" spans="7:53" ht="15.5">
-      <c r="AO30" s="17"/>
+      <c r="AO30" s="16"/>
     </row>
     <row r="31" spans="7:53" ht="15.5">
-      <c r="AO31" s="15"/>
+      <c r="AO31" s="14"/>
     </row>
     <row r="32" spans="7:53" ht="15.5">
-      <c r="AO32" s="17"/>
+      <c r="AO32" s="16"/>
     </row>
     <row r="33" spans="41:41" ht="15.5">
-      <c r="AO33" s="15"/>
+      <c r="AO33" s="14"/>
     </row>
     <row r="34" spans="41:41" ht="15.5">
-      <c r="AO34" s="17"/>
+      <c r="AO34" s="16"/>
     </row>
     <row r="35" spans="41:41" ht="15.5">
-      <c r="AO35" s="15"/>
+      <c r="AO35" s="14"/>
     </row>
     <row r="36" spans="41:41" ht="15.5">
-      <c r="AO36" s="17"/>
+      <c r="AO36" s="16"/>
     </row>
     <row r="37" spans="41:41" ht="15.5">
-      <c r="AO37" s="15"/>
+      <c r="AO37" s="14"/>
     </row>
     <row r="38" spans="41:41" ht="15.5">
-      <c r="AO38" s="17"/>
+      <c r="AO38" s="16"/>
     </row>
     <row r="39" spans="41:41" ht="15.5">
-      <c r="AO39" s="15"/>
+      <c r="AO39" s="14"/>
     </row>
     <row r="40" spans="41:41" ht="15.5">
-      <c r="AO40" s="17"/>
+      <c r="AO40" s="16"/>
     </row>
     <row r="41" spans="41:41" ht="15.5">
-      <c r="AO41" s="15"/>
+      <c r="AO41" s="14"/>
     </row>
     <row r="42" spans="41:41" ht="15.5">
-      <c r="AO42" s="17"/>
+      <c r="AO42" s="16"/>
     </row>
     <row r="43" spans="41:41" ht="15.5">
-      <c r="AO43" s="15"/>
+      <c r="AO43" s="14"/>
     </row>
     <row r="44" spans="41:41" ht="15.5">
-      <c r="AO44" s="17"/>
+      <c r="AO44" s="16"/>
     </row>
     <row r="45" spans="41:41" ht="15.5">
-      <c r="AO45" s="15"/>
+      <c r="AO45" s="14"/>
     </row>
     <row r="46" spans="41:41" ht="15.5">
-      <c r="AO46" s="17"/>
+      <c r="AO46" s="16"/>
     </row>
     <row r="47" spans="41:41" ht="15.5">
-      <c r="AO47" s="15"/>
+      <c r="AO47" s="14"/>
     </row>
     <row r="48" spans="41:41" ht="15.5">
-      <c r="AO48" s="17"/>
+      <c r="AO48" s="16"/>
     </row>
     <row r="49" spans="41:41" ht="15.5">
-      <c r="AO49" s="15"/>
+      <c r="AO49" s="14"/>
     </row>
     <row r="50" spans="41:41" ht="15.5">
-      <c r="AO50" s="17"/>
+      <c r="AO50" s="16"/>
     </row>
     <row r="51" spans="41:41" ht="15.5">
-      <c r="AO51" s="15"/>
+      <c r="AO51" s="14"/>
     </row>
     <row r="52" spans="41:41" ht="15.5">
-      <c r="AO52" s="17"/>
+      <c r="AO52" s="16"/>
     </row>
     <row r="53" spans="41:41" ht="15.5">
-      <c r="AO53" s="15"/>
+      <c r="AO53" s="14"/>
     </row>
     <row r="54" spans="41:41" ht="15.5">
-      <c r="AO54" s="17"/>
+      <c r="AO54" s="16"/>
     </row>
     <row r="55" spans="41:41" ht="15.5">
-      <c r="AO55" s="15"/>
+      <c r="AO55" s="14"/>
     </row>
     <row r="56" spans="41:41" ht="15.5">
-      <c r="AO56" s="17"/>
+      <c r="AO56" s="16"/>
     </row>
     <row r="57" spans="41:41" ht="15.5">
-      <c r="AO57" s="15"/>
+      <c r="AO57" s="14"/>
     </row>
     <row r="58" spans="41:41" ht="15.5">
-      <c r="AO58" s="17"/>
+      <c r="AO58" s="16"/>
     </row>
     <row r="59" spans="41:41" ht="15.5">
-      <c r="AO59" s="15"/>
+      <c r="AO59" s="14"/>
     </row>
     <row r="60" spans="41:41" ht="15.5">
-      <c r="AO60" s="17"/>
+      <c r="AO60" s="16"/>
     </row>
     <row r="61" spans="41:41" ht="15.5">
-      <c r="AO61" s="15"/>
+      <c r="AO61" s="14"/>
     </row>
     <row r="62" spans="41:41" ht="15.5">
-      <c r="AO62" s="17"/>
+      <c r="AO62" s="16"/>
     </row>
     <row r="63" spans="41:41" ht="15.5">
-      <c r="AO63" s="15"/>
+      <c r="AO63" s="14"/>
     </row>
     <row r="64" spans="41:41" ht="15.5">
-      <c r="AO64" s="17"/>
+      <c r="AO64" s="16"/>
     </row>
     <row r="65" spans="41:41" ht="15.5">
-      <c r="AO65" s="15"/>
+      <c r="AO65" s="14"/>
     </row>
     <row r="66" spans="41:41" ht="15.5">
-      <c r="AO66" s="17"/>
+      <c r="AO66" s="16"/>
     </row>
     <row r="67" spans="41:41" ht="15.5">
-      <c r="AO67" s="15"/>
+      <c r="AO67" s="14"/>
     </row>
     <row r="68" spans="41:41" ht="15.5">
-      <c r="AO68" s="17"/>
+      <c r="AO68" s="16"/>
     </row>
     <row r="69" spans="41:41" ht="15.5">
-      <c r="AO69" s="15"/>
+      <c r="AO69" s="14"/>
     </row>
     <row r="70" spans="41:41" ht="15.5">
-      <c r="AO70" s="17"/>
+      <c r="AO70" s="16"/>
     </row>
     <row r="71" spans="41:41" ht="15.5">
-      <c r="AO71" s="15"/>
+      <c r="AO71" s="14"/>
     </row>
     <row r="72" spans="41:41" ht="15.5">
-      <c r="AO72" s="17"/>
+      <c r="AO72" s="16"/>
     </row>
     <row r="73" spans="41:41" ht="15.5">
-      <c r="AO73" s="15"/>
+      <c r="AO73" s="14"/>
     </row>
     <row r="74" spans="41:41" ht="15.5">
-      <c r="AO74" s="17"/>
+      <c r="AO74" s="16"/>
     </row>
     <row r="75" spans="41:41" ht="15.5">
-      <c r="AO75" s="15"/>
+      <c r="AO75" s="14"/>
     </row>
     <row r="76" spans="41:41" ht="15.5">
-      <c r="AO76" s="17"/>
+      <c r="AO76" s="16"/>
     </row>
     <row r="77" spans="41:41" ht="15.5">
-      <c r="AO77" s="15"/>
+      <c r="AO77" s="14"/>
     </row>
     <row r="78" spans="41:41" ht="15.5">
-      <c r="AO78" s="17"/>
+      <c r="AO78" s="16"/>
     </row>
     <row r="79" spans="41:41" ht="15.5">
-      <c r="AO79" s="15"/>
+      <c r="AO79" s="14"/>
     </row>
     <row r="80" spans="41:41" ht="15.5">
-      <c r="AO80" s="17"/>
+      <c r="AO80" s="16"/>
     </row>
     <row r="81" spans="41:41" ht="15.5">
-      <c r="AO81" s="15"/>
+      <c r="AO81" s="14"/>
     </row>
     <row r="82" spans="41:41" ht="15.5">
-      <c r="AO82" s="17"/>
+      <c r="AO82" s="16"/>
     </row>
     <row r="83" spans="41:41" ht="15.5">
-      <c r="AO83" s="15"/>
+      <c r="AO83" s="14"/>
     </row>
     <row r="84" spans="41:41" ht="15.5">
-      <c r="AO84" s="17"/>
+      <c r="AO84" s="16"/>
     </row>
     <row r="85" spans="41:41" ht="15.5">
-      <c r="AO85" s="15"/>
+      <c r="AO85" s="14"/>
     </row>
     <row r="86" spans="41:41" ht="15.5">
-      <c r="AO86" s="17"/>
+      <c r="AO86" s="16"/>
     </row>
     <row r="87" spans="41:41" ht="15.5">
-      <c r="AO87" s="15"/>
+      <c r="AO87" s="14"/>
     </row>
     <row r="88" spans="41:41" ht="15.5">
-      <c r="AO88" s="17"/>
+      <c r="AO88" s="16"/>
     </row>
     <row r="89" spans="41:41" ht="15.5">
-      <c r="AO89" s="15"/>
+      <c r="AO89" s="14"/>
     </row>
     <row r="90" spans="41:41" ht="15.5">
-      <c r="AO90" s="17"/>
+      <c r="AO90" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="11">

--- a/data/apprentice_enter_lab.xlsx
+++ b/data/apprentice_enter_lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594C7789-2115-49DC-81C9-3933F76BE8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0345236-0C23-4741-A4DD-49EF5F81F160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="100">
   <si>
     <t>שם</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>a@s.c</t>
+  </si>
+  <si>
+    <t>נשוי</t>
   </si>
 </sst>
 </file>
@@ -709,7 +712,7 @@
   <dimension ref="A1:BA90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -945,7 +948,7 @@
         <v>98</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>60</v>

--- a/data/apprentice_enter_lab.xlsx
+++ b/data/apprentice_enter_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0345236-0C23-4741-A4DD-49EF5F81F160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC28DB19-B76F-4528-A19F-4E803F064240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,9 +267,6 @@
     <t>הייטק</t>
   </si>
   <si>
-    <t>חיל שריון</t>
-  </si>
-  <si>
     <t>צנחנים</t>
   </si>
   <si>
@@ -297,9 +294,6 @@
     <t>אוניברסיטת בן-גוריון בנגב</t>
   </si>
   <si>
-    <t>חי״ר</t>
-  </si>
-  <si>
     <t>גבעתי</t>
   </si>
   <si>
@@ -325,6 +319,12 @@
   </si>
   <si>
     <t>נשוי</t>
+  </si>
+  <si>
+    <t>סיירות</t>
+  </si>
+  <si>
+    <t>גדודים</t>
   </si>
 </sst>
 </file>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -945,10 +945,10 @@
         <v>117474</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>60</v>
@@ -1002,7 +1002,7 @@
         <v>117474</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AD2" s="9" t="s">
         <v>70</v>
@@ -1044,19 +1044,19 @@
         <v>79</v>
       </c>
       <c r="AQ2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="AS2" s="10">
         <v>888</v>
       </c>
       <c r="AT2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU2" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="AU2" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="AV2" s="8">
         <v>117474</v>
@@ -1065,10 +1065,10 @@
         <v>117474</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AY2" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ2" s="12">
         <v>549247616</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="3" spans="1:53" ht="24" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>53</v>
@@ -1092,16 +1092,16 @@
         <v>56</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="I3" s="8">
         <v>117474</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>59</v>
@@ -1110,7 +1110,7 @@
         <v>60</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>62</v>
@@ -1140,7 +1140,7 @@
         <v>69</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X3" s="7" t="s">
         <v>68</v>
@@ -1149,10 +1149,10 @@
         <v>65</v>
       </c>
       <c r="Z3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="AB3" s="8">
         <v>117474</v>
@@ -1174,7 +1174,7 @@
         <v>72</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ3" s="2" t="s">
         <v>74</v>
@@ -1192,25 +1192,25 @@
         <v>77</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AP3" s="2" t="s">
         <v>79</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AS3" s="10">
         <v>999</v>
       </c>
       <c r="AT3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU3" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="AU3" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="AV3" s="8">
         <v>117475</v>
@@ -1219,10 +1219,10 @@
         <v>117475</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AY3" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AZ3" s="12">
         <v>549247616</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="13" spans="1:53" ht="15.5">
       <c r="G13" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AN13" s="17"/>
       <c r="AO13" s="14"/>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="22" spans="7:53" ht="15.5">
       <c r="G22" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AO22" s="16"/>
       <c r="BA22" s="13"/>
@@ -1550,9 +1550,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"בשירות סדיר,קבע,משוחרר,בטיול אחרי צבא"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ2:AQ3" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>"חי״ר,חיל שריון,חיל הים,חיל האוויר,סיירות,חיל תותחנים,חיל הנדסה,מודיעין"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K2:K3" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"רווק,נשוי,גרוש"</formula1>
@@ -1572,6 +1569,9 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AY2:AY3" xr:uid="{6DC33454-2E06-4849-A10A-ABACE9D3C422}">
       <formula1>"אשכול דרום,אשכול מרכז,אשכול צפון,אשכול בני - דוד"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ1:AQ1048576" xr:uid="{38CA151A-D39E-4370-8916-F9CFAA7E418E}">
+      <formula1>"סיירות,גדודים"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{3AE54CEE-7EC2-40FF-8386-CE468EEED634}"/>
